--- a/my1stProject/uart/uart.xlsx
+++ b/my1stProject/uart/uart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\soce\hello-world\my1stProject\uart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\Documents\SoCgit\hello-world\my1stProject\uart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="509">
   <si>
     <t>Component Name</t>
   </si>
@@ -1576,15 +1576,9 @@
     <t>prdata</t>
   </si>
   <si>
-    <t>PCLK</t>
-  </si>
-  <si>
     <t>clk</t>
   </si>
   <si>
-    <t>PRESETn</t>
-  </si>
-  <si>
     <t>Interrupt</t>
   </si>
   <si>
@@ -1799,6 +1793,21 @@
   </si>
   <si>
     <t>EXTBAUD</t>
+  </si>
+  <si>
+    <t>[31:0]</t>
+  </si>
+  <si>
+    <t>spiritconsortium.org</t>
+  </si>
+  <si>
+    <t>Leon2RTL</t>
+  </si>
+  <si>
+    <t>uart</t>
+  </si>
+  <si>
+    <t>[31:12]</t>
   </si>
 </sst>
 </file>
@@ -3356,7 +3365,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3396,7 +3405,9 @@
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
@@ -3404,8 +3415,10 @@
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="96"/>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
@@ -3414,7 +3427,9 @@
       <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="96"/>
+      <c r="B11" s="96" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
@@ -3423,7 +3438,9 @@
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="96"/>
+      <c r="B14" s="96">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
@@ -5834,7 +5851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
@@ -5890,7 +5907,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D4" s="7" t="b">
         <v>0</v>
@@ -6014,10 +6031,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
@@ -6027,7 +6044,7 @@
         <v>417</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -6038,7 +6055,7 @@
         <v>420</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -6049,7 +6066,7 @@
         <v>422</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -6057,10 +6074,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -6071,7 +6088,7 @@
         <v>426</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -6079,10 +6096,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -6090,10 +6107,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -6101,10 +6118,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -6112,10 +6129,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -6123,10 +6140,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="85" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -6134,10 +6151,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -6145,10 +6162,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -6156,10 +6173,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -6167,10 +6184,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -6178,10 +6195,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -6189,10 +6206,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -6335,8 +6352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -6406,12 +6423,12 @@
         <v>413</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="111"/>
       <c r="F3" s="111" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G3" s="111"/>
       <c r="H3" s="111"/>
@@ -6441,13 +6458,13 @@
         <v>415</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -6476,13 +6493,13 @@
         <v>418</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="87" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6582,7 +6599,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -6593,12 +6610,8 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="87" t="s">
-        <v>431</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>432</v>
-      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -6610,12 +6623,8 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="87" t="s">
-        <v>433</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>417</v>
-      </c>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -6626,16 +6635,16 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -6647,10 +6656,10 @@
       <c r="A17" s="16"/>
       <c r="B17" s="14"/>
       <c r="C17" s="87" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -6662,15 +6671,17 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>451</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -6681,10 +6692,10 @@
       <c r="A19" s="16"/>
       <c r="B19" s="14"/>
       <c r="C19" s="87" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -6698,10 +6709,10 @@
       <c r="A20" s="16"/>
       <c r="B20" s="14"/>
       <c r="C20" s="87" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -6715,10 +6726,10 @@
       <c r="A21" s="16"/>
       <c r="B21" s="14"/>
       <c r="C21" s="87" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -6732,10 +6743,10 @@
       <c r="A22" s="16"/>
       <c r="B22" s="14"/>
       <c r="C22" s="87" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -6749,10 +6760,10 @@
       <c r="A23" s="16"/>
       <c r="B23" s="14"/>
       <c r="C23" s="87" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -7529,11 +7540,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7609,7 +7620,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -7620,30 +7631,15 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D6">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s">
-        <v>457</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
+      <c r="E7" t="s">
+        <v>454</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
@@ -7651,33 +7647,36 @@
       <c r="G7" t="s">
         <v>103</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>504</v>
+      </c>
       <c r="J7" t="s">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>461</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>462</v>
+      <c r="C8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>457</v>
       </c>
       <c r="K8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F9" t="s">
         <v>103</v>
@@ -7686,12 +7685,15 @@
         <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>465</v>
+        <v>460</v>
+      </c>
+      <c r="K9" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F10" t="s">
         <v>103</v>
@@ -7700,12 +7702,12 @@
         <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -7714,12 +7716,12 @@
         <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F12" t="s">
         <v>103</v>
@@ -7728,12 +7730,12 @@
         <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F13" t="s">
         <v>103</v>
@@ -7742,12 +7744,12 @@
         <v>103</v>
       </c>
       <c r="I13" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -7756,12 +7758,12 @@
         <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F15" t="s">
         <v>103</v>
@@ -7770,167 +7772,214 @@
         <v>103</v>
       </c>
       <c r="I15" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>478</v>
-      </c>
-      <c r="D16">
-        <v>32</v>
+      <c r="E16" t="s">
+        <v>474</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
       </c>
-      <c r="J16" t="s">
+      <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>477</v>
+      </c>
+      <c r="K17" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>479</v>
-      </c>
-      <c r="K16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>481</v>
-      </c>
-      <c r="F17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>482</v>
       </c>
       <c r="F18" t="s">
         <v>103</v>
       </c>
+      <c r="G18" t="s">
+        <v>103</v>
+      </c>
       <c r="I18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F19" t="s">
         <v>103</v>
       </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
       <c r="I19" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F20" t="s">
         <v>103</v>
       </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
       <c r="I20" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F21" t="s">
         <v>103</v>
       </c>
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
       <c r="I21" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F22" t="s">
         <v>103</v>
       </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
       <c r="I22" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F23" t="s">
         <v>103</v>
       </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
       <c r="I23" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F24" t="s">
         <v>103</v>
       </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
       <c r="I24" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F25" t="s">
         <v>103</v>
       </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
       <c r="I25" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="F26" t="s">
         <v>103</v>
       </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
       <c r="I26" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>492</v>
-      </c>
-      <c r="D27">
-        <v>32</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>474</v>
       </c>
       <c r="F27" t="s">
         <v>103</v>
       </c>
-      <c r="J27" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E28" t="s">
-        <v>494</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G27" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="J28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="F29" t="s">
         <v>103</v>
       </c>
+      <c r="G29" t="s">
+        <v>103</v>
+      </c>
       <c r="I29" t="s">
-        <v>495</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>474</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -8658,7 +8707,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>

--- a/my1stProject/uart/uart.xlsx
+++ b/my1stProject/uart/uart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="120" windowWidth="19440" windowHeight="7635" tabRatio="820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="9" r:id="rId1"/>
